--- a/Записи (Автосохраненный).xlsx
+++ b/Записи (Автосохраненный).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>Console.WriteLine()</t>
   </si>
@@ -874,6 +874,30 @@
   </si>
   <si>
     <t>temp</t>
+  </si>
+  <si>
+    <t>семинар 9</t>
+  </si>
+  <si>
+    <t>/n</t>
+  </si>
+  <si>
+    <t>в стринге</t>
+  </si>
+  <si>
+    <t>перенос на новую строку</t>
+  </si>
+  <si>
+    <t>/r</t>
+  </si>
+  <si>
+    <t>отступ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if (int.TryParse(Console.ReadLine(), out answer))</t>
+  </si>
+  <si>
+    <t>проверка на возможность преобр в int</t>
   </si>
 </sst>
 </file>
@@ -1003,12 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1022,6 +1040,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1326,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H45"/>
+  <dimension ref="B3:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1430,7 +1454,7 @@
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1441,7 +1465,7 @@
       <c r="D18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
@@ -1537,7 +1561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C33" s="5" t="s">
         <v>43</v>
       </c>
@@ -1548,7 +1572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
         <v>44</v>
       </c>
@@ -1559,7 +1583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>46</v>
       </c>
@@ -1570,7 +1594,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
         <v>47</v>
       </c>
@@ -1581,7 +1605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -1592,7 +1616,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
         <v>54</v>
       </c>
@@ -1603,32 +1627,32 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="3:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="C43" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="3:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="5" t="s">
         <v>65</v>
       </c>
@@ -1639,7 +1663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
         <v>63</v>
       </c>
@@ -1648,6 +1672,45 @@
       </c>
       <c r="E45" s="6" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1670,39 +1733,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="13" customWidth="1"/>
-    <col min="2" max="5" width="5.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="11" customWidth="1"/>
+    <col min="2" max="5" width="5.5546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13">
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11">
         <v>0</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="11">
         <v>1</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="11">
         <v>2</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>6</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>9</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>8</v>
       </c>
       <c r="H2" t="s">
@@ -1710,109 +1773,109 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>2</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>4</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>6</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>6</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>7</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>8</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>6</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>80</v>
       </c>
     </row>
